--- a/Glasbruecke_Spalt_Main_Weihnachtskolloguium/Glasbruecke_data_Weihnachtskoll.xlsx
+++ b/Glasbruecke_Spalt_Main_Weihnachtskolloguium/Glasbruecke_data_Weihnachtskoll.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bjoern/Documents/Universität Rostock/Sonstiges/Glasbruecke_spalt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bjoern_hzdr/Documents/GitHub/Glasbruecke_Institut_Physik_Rostock/Glasbruecke_Spalt_Main_Weihnachtskolloguium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2824B5-2AAB-1F40-ADE6-A46190A81F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16A802B-A771-A740-9B91-D1DF191D1AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="12720" windowHeight="17500" xr2:uid="{8EA200BE-1066-834C-918B-2BEB0EDEA881}"/>
+    <workbookView xWindow="33320" yWindow="500" windowWidth="31820" windowHeight="20320" xr2:uid="{8EA200BE-1066-834C-918B-2BEB0EDEA881}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -73,24 +72,6 @@
   <si>
     <t>Gummi gerissen</t>
   </si>
-  <si>
-    <t>T1_old</t>
-  </si>
-  <si>
-    <t>T2_old</t>
-  </si>
-  <si>
-    <t>T1_new</t>
-  </si>
-  <si>
-    <t>T2_new</t>
-  </si>
-  <si>
-    <t>p1</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
 </sst>
 </file>
 
@@ -100,17 +81,10 @@
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -136,13 +110,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -160,962 +133,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle2!$E$2:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.1884816753926701</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.061855670103093</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1451612903225805</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1111111111111112</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1081081081081081</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1647727272727271</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0CBC-DF44-B6DE-F0859A47B633}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle2!$F$2:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.1758241758241759</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0982658959537572</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2545454545454544</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.223529411764706</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2138728323699421</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1744186046511629</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2658227848101264</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0CBC-DF44-B6DE-F0859A47B633}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1795556240"/>
-        <c:axId val="1790440176"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1795556240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1790440176"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1790440176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1795556240"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D5B0B8-EE92-31D3-8B5C-CE5D94BA5DE5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1153,7 +174,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1259,7 +280,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1401,7 +422,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1409,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082DF3E8-761C-B749-991E-D722927518DD}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+      <selection activeCell="C58" sqref="C58:D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3181,197 +2202,33 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>46002</v>
+      </c>
+      <c r="B68" s="3">
+        <v>0.45902777777777776</v>
+      </c>
+      <c r="C68" s="4">
+        <v>18.7</v>
+      </c>
+      <c r="D68" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="E68" s="4">
+        <v>29.3</v>
+      </c>
+      <c r="F68" s="4">
+        <v>27</v>
+      </c>
+      <c r="G68" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H68" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1706ED-B581-D947-89D7-ACAB610CBC9A}">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="B2" s="5">
-        <v>18.2</v>
-      </c>
-      <c r="C2">
-        <v>22.7</v>
-      </c>
-      <c r="D2">
-        <v>21.4</v>
-      </c>
-      <c r="E2">
-        <f>C2/A2</f>
-        <v>1.1884816753926701</v>
-      </c>
-      <c r="F2">
-        <f>D2/B2</f>
-        <v>1.1758241758241759</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="B3" s="5">
-        <v>17.3</v>
-      </c>
-      <c r="C3">
-        <v>20.6</v>
-      </c>
-      <c r="D3">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E8" si="0">C3/A3</f>
-        <v>1.061855670103093</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F8" si="1">D3/B3</f>
-        <v>1.0982658959537572</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="B4" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="C4">
-        <v>20.7</v>
-      </c>
-      <c r="D4">
-        <v>20.7</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>1.125</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>1.2545454545454544</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="B5" s="5">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>21.3</v>
-      </c>
-      <c r="D5">
-        <v>20.8</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>1.1451612903225805</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>1.223529411764706</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="B6" s="5">
-        <v>17.3</v>
-      </c>
-      <c r="C6">
-        <v>21</v>
-      </c>
-      <c r="D6">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>1.1111111111111112</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>1.2138728323699421</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>18.5</v>
-      </c>
-      <c r="B7" s="5">
-        <v>17.2</v>
-      </c>
-      <c r="C7">
-        <v>20.5</v>
-      </c>
-      <c r="D7">
-        <v>20.2</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>1.1081081081081081</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>1.1744186046511629</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="B8" s="5">
-        <v>15.8</v>
-      </c>
-      <c r="C8">
-        <v>20.5</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>1.1647727272727271</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>1.2658227848101264</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>